--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1560309.979426492</v>
+        <v>1558422.39791009</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>312.7196087087398</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>83.85112090809152</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="4">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,16 +829,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>39.25266187003844</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>163.9206648785247</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>131.5366686688007</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>223.1498336210773</v>
+        <v>205.1478855987998</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>300.2994412657488</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>186.250717003031</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1303,16 +1303,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>14.52687838733164</v>
       </c>
       <c r="H10" t="n">
-        <v>59.72683757586863</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>47.20011114811107</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>148.4433421453981</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>137.2533775135909</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>88.83679808884824</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>65.57092839063779</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>185.0314030821033</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>2.654169196206169</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.1408521553538</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002171</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>216.2479102458284</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>39.11561436815825</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>114.9309043193591</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965531</v>
+        <v>93.41221638965526</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801213</v>
+        <v>91.23070601801207</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437415</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897908</v>
+        <v>60.90656735995444</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571488</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523575</v>
+        <v>54.76109577523569</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>3.549119087287299</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692859</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224535</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.876045741713</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2423.485734520778</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>152.5644878091387</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>138.6410837477296</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>138.6410837477296</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2423.485734520778</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>2423.485734520778</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
         <v>505.8730812692495</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>580.2158906240413</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>433.3259431261309</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>609.3508327416157</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C5" t="n">
-        <v>240.388315801204</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2509.255079661038</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2509.255079661038</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2509.255079661038</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2509.255079661038</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>2509.255079661038</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.090004781549</v>
+        <v>2509.255079661038</v>
       </c>
       <c r="Y5" t="n">
-        <v>995.9506728057374</v>
+        <v>2119.115747685226</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4665,22 +4665,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4762,13 +4762,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430002</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>378.1446555862789</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C8" t="n">
         <v>74.81188663097703</v>
@@ -4835,19 +4835,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626212</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y8" t="n">
-        <v>764.7444956504007</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,19 +4881,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4951,13 +4951,13 @@
         <v>114.2731207858883</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2731207858883</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5027,37 +5027,37 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394.223678370532</v>
+        <v>542.438140992646</v>
       </c>
       <c r="C13" t="n">
-        <v>394.223678370532</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1451.239390610315</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1451.239390610315</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1227.453975399821</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>938.3253366133794</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>683.6408484074925</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W13" t="n">
-        <v>394.223678370532</v>
+        <v>920.3704617344998</v>
       </c>
       <c r="X13" t="n">
-        <v>394.223678370532</v>
+        <v>692.3809108364825</v>
       </c>
       <c r="Y13" t="n">
-        <v>394.223678370532</v>
+        <v>542.438140992646</v>
       </c>
     </row>
     <row r="14">
@@ -5276,19 +5276,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>503.0396462065435</v>
+        <v>842.8697743566707</v>
       </c>
       <c r="C16" t="n">
-        <v>503.0396462065435</v>
+        <v>673.9335914287639</v>
       </c>
       <c r="D16" t="n">
-        <v>503.0396462065435</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E16" t="n">
-        <v>355.1265526241503</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F16" t="n">
-        <v>355.1265526241503</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>186.9512309439709</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.446367141521</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>731.0291971045608</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X16" t="n">
-        <v>503.0396462065435</v>
+        <v>981.5095496229243</v>
       </c>
       <c r="Y16" t="n">
-        <v>503.0396462065435</v>
+        <v>981.5095496229243</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,16 +5513,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>816.7950850315615</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1124.115218311523</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N18" t="n">
-        <v>1453.977845975556</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>626.428715221413</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5671,16 +5671,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>755.1831334811259</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W19" t="n">
-        <v>465.7659634441652</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X19" t="n">
-        <v>465.7659634441652</v>
+        <v>847.2212943649431</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>626.428715221413</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5741,40 +5741,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5838,7 +5838,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1029.666285013068</v>
+        <v>268.0733921265326</v>
       </c>
       <c r="C22" t="n">
-        <v>860.7301020851612</v>
+        <v>268.0733921265326</v>
       </c>
       <c r="D22" t="n">
-        <v>710.6134626728254</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>562.7003690904323</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1432.107328986838</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1432.107328986838</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1432.107328986838</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1432.107328986838</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>1432.107328986838</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W22" t="n">
-        <v>1432.107328986838</v>
+        <v>898.5039869983198</v>
       </c>
       <c r="X22" t="n">
-        <v>1432.107328986838</v>
+        <v>670.5144361003024</v>
       </c>
       <c r="Y22" t="n">
-        <v>1211.314749843308</v>
+        <v>449.7218569567723</v>
       </c>
     </row>
     <row r="23">
@@ -5966,46 +5966,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823778</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6148,10 +6148,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
         <v>779.063975947119</v>
@@ -6160,7 +6160,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1080.564027901911</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>791.435389115469</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>536.7509009095821</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,10 +6242,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
@@ -6312,7 +6312,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>136.727813044284</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>136.727813044284</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>136.727813044284</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>136.727813044284</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>136.7278130442841</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>136.7278130442841</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028587</v>
@@ -6382,22 +6382,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6412,22 +6412,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1271.749344574921</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V28" t="n">
-        <v>1017.064856369034</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W28" t="n">
-        <v>727.6476863320731</v>
+        <v>585.5099430858314</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>357.5203921878141</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>136.727813044284</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,40 +6473,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>603.9720111083038</v>
+        <v>604.5641438163779</v>
       </c>
       <c r="C31" t="n">
-        <v>490.7966934617677</v>
+        <v>604.5641438163779</v>
       </c>
       <c r="D31" t="n">
-        <v>396.4409193308028</v>
+        <v>510.2083696854129</v>
       </c>
       <c r="E31" t="n">
-        <v>304.2886910297804</v>
+        <v>418.0561413843906</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297804</v>
+        <v>326.927059167851</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309718</v>
+        <v>214.5126027690425</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
         <v>671.4509053667509</v>
@@ -6640,7 +6640,7 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
@@ -6649,22 +6649,22 @@
         <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1733.067711321156</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1499.699937816085</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1300.776314891569</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>1067.120010135979</v>
+        <v>902.6804289818934</v>
       </c>
       <c r="X31" t="n">
-        <v>894.891324519332</v>
+        <v>730.4517433652468</v>
       </c>
       <c r="Y31" t="n">
-        <v>729.8596106571727</v>
+        <v>730.4517433652468</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6719,31 +6719,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6844,10 +6844,10 @@
         <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
@@ -6932,7 +6932,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6959,28 +6959,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7011,16 +7011,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.193690363625</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525396</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254953</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
@@ -7120,7 +7120,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,22 +7251,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083205</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7333,7 +7333,7 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7673,10 +7673,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7810,31 +7810,31 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025263</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>253.7371603504743</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,25 +9246,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>285.1031356539335</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298383</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.76424125568173</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>70.14131120669671</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>42.57860266834641</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>60.07703027868788</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>101.67589270799</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23941,22 +23941,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>33.55325026999154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>145.9613038220062</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>43.823500248439</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24187,10 +24187,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24412,10 +24412,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338612</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>5.299650812560825</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>109.7982139993779</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24652,13 +24652,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>171.3064480792182</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943742</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>32.80400437902505</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571494</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>162.7951853425449</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>926047.2283490478</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>926047.2283490476</v>
+        <v>926047.2283490478</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>926047.2283490477</v>
+        <v>926047.2283490478</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>926047.2283490477</v>
+        <v>926047.2283490478</v>
       </c>
     </row>
     <row r="11">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
         <v>472099.017671963</v>
@@ -26320,37 +26320,37 @@
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="F2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="G2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="H2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="I2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="J2" t="n">
         <v>449683.4186983652</v>
-      </c>
-      <c r="J2" t="n">
-        <v>449683.4186983653</v>
       </c>
       <c r="K2" t="n">
         <v>467845.4579470613</v>
       </c>
       <c r="L2" t="n">
-        <v>472099.0176719627</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="M2" t="n">
         <v>472099.0176719627</v>
       </c>
       <c r="N2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="O2" t="n">
-        <v>472099.0176719627</v>
+        <v>472099.0176719628</v>
       </c>
       <c r="P2" t="n">
         <v>472099.0176719629</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284566</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086687</v>
+        <v>10342.90680086684</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284561</v>
+        <v>44162.60530284568</v>
       </c>
     </row>
     <row r="4">
@@ -26418,7 +26418,7 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
@@ -26430,34 +26430,34 @@
         <v>7916.731656007497</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007498</v>
+        <v>7916.7316560075</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007501</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007469</v>
+        <v>7916.731656007466</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020398</v>
+        <v>26081.35417020404</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732789</v>
       </c>
       <c r="N4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26476,31 +26476,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-348644.9883219119</v>
+        <v>-348644.9883219118</v>
       </c>
       <c r="C6" t="n">
-        <v>241322.8908926327</v>
+        <v>241322.8908926326</v>
       </c>
       <c r="D6" t="n">
         <v>241322.8908926327</v>
       </c>
       <c r="E6" t="n">
-        <v>-175380.6753832549</v>
+        <v>-175478.1345092274</v>
       </c>
       <c r="F6" t="n">
-        <v>349779.3610936411</v>
+        <v>349681.901967669</v>
       </c>
       <c r="G6" t="n">
-        <v>349779.361093641</v>
+        <v>349681.9019676688</v>
       </c>
       <c r="H6" t="n">
-        <v>349779.3610936411</v>
+        <v>349681.901967669</v>
       </c>
       <c r="I6" t="n">
-        <v>349779.3610936411</v>
+        <v>349681.9019676691</v>
       </c>
       <c r="J6" t="n">
-        <v>173356.1419010482</v>
+        <v>173258.6827750759</v>
       </c>
       <c r="K6" t="n">
-        <v>300973.2899437888</v>
+        <v>300954.7962058546</v>
       </c>
       <c r="L6" t="n">
-        <v>333705.4861537425</v>
+        <v>333705.4861537427</v>
       </c>
       <c r="M6" t="n">
-        <v>209247.3777207723</v>
+        <v>209247.3777207721</v>
       </c>
       <c r="N6" t="n">
+        <v>344048.3929546094</v>
+      </c>
+      <c r="O6" t="n">
         <v>344048.3929546095</v>
       </c>
-      <c r="O6" t="n">
-        <v>344048.3929546094</v>
-      </c>
       <c r="P6" t="n">
-        <v>299885.7876517639</v>
+        <v>299885.7876517638</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,22 +26744,22 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26820,7 +26820,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108358</v>
+        <v>12.92863350108355</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.2032566285571</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855707</v>
       </c>
     </row>
     <row r="3">
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>52.55328306226778</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>68.08019533676973</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27464,67 +27464,67 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1681237664919</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,16 +27549,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>128.0571403890125</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>190.7623767421583</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>42.87904414017078</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>63.3731647155137</v>
+        <v>81.37511273779117</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>64.97345050525871</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27907,7 +27907,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>64.97345050525834</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28023,16 +28023,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>152.7829238717193</v>
       </c>
       <c r="H10" t="n">
-        <v>96.44405126592652</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.2032566285571</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>460.8305752819989</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>534.3608406099578</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>693.6972596887384</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36923,16 +36923,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.71102679412263</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
@@ -37002,13 +37002,13 @@
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043186</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37634,10 +37634,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
